--- a/data/pearson_kendall_conversion.xlsx
+++ b/data/pearson_kendall_conversion.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ojcchar/repositories/Projects/complexity-verification-project/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E7CE87-D6B9-8D4D-80D7-FFB74F71FEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB49929-D110-4634-8880-9C41DAB53174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{2E1F5E81-BA27-864D-AC45-9BA741B79047}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E1F5E81-BA27-864D-AC45-9BA741B79047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -398,9 +392,9 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>0</v>
       </c>
@@ -414,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>0</v>
       </c>
@@ -431,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H10">
         <f>H9+0.1</f>
         <v>0.1</v>
@@ -457,9 +451,9 @@
         <v>-0.10000003575641672</v>
       </c>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H11">
-        <f t="shared" ref="H11:H20" si="3">H10+0.1</f>
+        <f t="shared" ref="H11:H19" si="3">H10+0.1</f>
         <v>0.2</v>
       </c>
       <c r="I11">
@@ -475,7 +469,7 @@
         <v>-0.3090169943749474</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L20" si="4">0.63662*ASIN(J11)</f>
+        <f t="shared" ref="L11:L19" si="4">0.63662*ASIN(J11)</f>
         <v>0.20000007151283339</v>
       </c>
       <c r="M11">
@@ -483,7 +477,7 @@
         <v>-0.20000007151283339</v>
       </c>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H12">
         <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
@@ -509,7 +503,7 @@
         <v>-0.30000010726925008</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H13">
         <f t="shared" si="3"/>
         <v>0.4</v>
@@ -535,7 +529,7 @@
         <v>-0.40000014302566678</v>
       </c>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H14">
         <f t="shared" si="3"/>
         <v>0.5</v>
@@ -561,7 +555,7 @@
         <v>-0.50000017878208347</v>
       </c>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H15">
         <f t="shared" si="3"/>
         <v>0.6</v>
@@ -587,7 +581,7 @@
         <v>-0.60000021453850028</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H16">
         <f t="shared" si="3"/>
         <v>0.7</v>
@@ -598,22 +592,22 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.8910065241883679</v>
+        <v>0.89100652418836779</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>-0.8910065241883679</v>
+        <v>-0.89100652418836779</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>0.70000025029491708</v>
+        <v>0.70000025029491686</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
         <v>-0.70000025029491686</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
@@ -639,7 +633,7 @@
         <v>-0.80000028605133378</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
@@ -662,10 +656,10 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>-0.90000032180775058</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.2">
+        <v>-0.90000032180775047</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19">
         <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
@@ -691,7 +685,7 @@
         <v>-1.0000003575641669</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>-0.44</v>
       </c>
@@ -700,7 +694,7 @@
         <v>-0.29004322745724909</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>-0.33772774774302539</v>
       </c>
@@ -711,5 +705,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>